--- a/psy/sound1/defineTrials.xlsx
+++ b/psy/sound1/defineTrials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgreen\gits\psychopy-training-1-of-2\psy\sound1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1903DE02-6478-4564-96F2-F0027E0D25A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6AF80E-616A-4DEC-B5F5-185C9DCC234A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10725" yWindow="285" windowWidth="13065" windowHeight="9915" xr2:uid="{DCE04B16-6D1C-451A-9FC4-CE9ADB92DB36}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE04B16-6D1C-451A-9FC4-CE9ADB92DB36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>trialnum</t>
   </si>
@@ -79,21 +79,6 @@
     <t>ambience_bar_small_001.ogg</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
     <t>cheeseburger</t>
   </si>
   <si>
@@ -104,6 +89,9 @@
   </si>
   <si>
     <t>musical tone</t>
+  </si>
+  <si>
+    <t>mixkit-heavy-rain-and-thunder-ambience-1259.wav</t>
   </si>
 </sst>
 </file>
@@ -464,7 +452,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -499,7 +487,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -516,7 +504,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -533,7 +521,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -550,7 +538,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -567,7 +555,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -581,10 +569,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -598,10 +586,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -615,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -632,13 +620,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -652,7 +640,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
